--- a/biology/Botanique/Liste_de_cultivars_de_patates_douces/Liste_de_cultivars_de_patates_douces.xlsx
+++ b/biology/Botanique/Liste_de_cultivars_de_patates_douces/Liste_de_cultivars_de_patates_douces.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La présente liste de cultivars de patates douces, non exhaustive, fournit certaines informations sur des variétés commerciales et cultivars de patates douces (Ipomoea batatas). En 2013, on dénombrait environ 7 000 cultivars de patates douces dans le monde. Cette espèce est cultivées dans de nombreuses régions du monde, principalement en Asie (Chine, Japon, Indonésie, Philippines, Inde, Viêt Nam, etc.), en Afrique (Nigeria, Ouganda, Kenya, Malawi, etc.), en Amérique du Nord, mais aussi en Océanie (Papouasie-Nouvelle-Guinée, Nouvelle-Zélande, Australie, Hawaï, etc.). Cependant, la patate douce n'est pas largement cultivée en Europe, sauf au Portugal et en Espagne[1]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La présente liste de cultivars de patates douces, non exhaustive, fournit certaines informations sur des variétés commerciales et cultivars de patates douces (Ipomoea batatas). En 2013, on dénombrait environ 7 000 cultivars de patates douces dans le monde. Cette espèce est cultivées dans de nombreuses régions du monde, principalement en Asie (Chine, Japon, Indonésie, Philippines, Inde, Viêt Nam, etc.), en Afrique (Nigeria, Ouganda, Kenya, Malawi, etc.), en Amérique du Nord, mais aussi en Océanie (Papouasie-Nouvelle-Guinée, Nouvelle-Zélande, Australie, Hawaï, etc.). Cependant, la patate douce n'est pas largement cultivée en Europe, sauf au Portugal et en Espagne
 Les cultivars de patates douces diffèrent à bien des égards. Parmi les critères les plus communs figurent la taille, la forme et la couleur des tubercules. Plus la chair d'un tubercule de patate douce est orange, plus elle est riche en carotène, qui est métabolisé dans l'organisme humain  en vitamine A. La peau ( épiderme) des tubercules est de couleur différente de celle de la chair (moelle). 
-Vers le milieu du XXe siècle, les producteurs de patates douces du sud des États-Unis ont commencé à commercialiser des patates douces à chair orange sous le nom de yams, dans le but de les différencier des patates douces à chair blanche ou jaune[2].
+Vers le milieu du XXe siècle, les producteurs de patates douces du sud des États-Unis ont commencé à commercialiser des patates douces à chair orange sous le nom de yams, dans le but de les différencier des patates douces à chair blanche ou jaune.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Cultivars sélectionnés pour leur tubercules comestibles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La plupart des cultivars de patates douces listés ci-dessous ont été sélectionnés dans des stations expérimentales agricoles (SEA) américaines, généralement exploitées par un organisme gouvernemental ou une université.
 </t>
@@ -545,6 +559,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
